--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -81,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -109,6 +109,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -123,66 +214,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -191,9 +222,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,7 +231,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,36 +240,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,187 +267,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,11 +461,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,17 +506,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,21 +540,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,36 +558,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,7 +1072,7 @@
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1402,15 +1402,36 @@
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="1"/>
+      <c r="C12" s="1">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1">
+        <v>370</v>
+      </c>
+      <c r="E12" s="1">
+        <v>630</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1207</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J12" s="1">
+        <v>5000</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="1"/>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -81,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -137,49 +137,72 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,18 +214,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,30 +238,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -267,31 +267,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,13 +417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,61 +435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,67 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,6 +491,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -502,17 +537,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,40 +558,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,7 +1072,7 @@
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="J12" s="1">
         <v>5000</v>
@@ -1435,27 +1435,69 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="1"/>
+      <c r="C13" s="1">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1">
+        <v>370</v>
+      </c>
+      <c r="E13" s="1">
+        <v>630</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1208</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="1"/>
+      <c r="C14" s="1">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1">
+        <v>370</v>
+      </c>
+      <c r="E14" s="1">
+        <v>630</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1209</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>370</v>
+      </c>
+      <c r="K14" s="1">
+        <v>630</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -81,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -108,6 +108,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -116,91 +138,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,11 +167,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,6 +183,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -245,8 +237,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,12 +267,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -285,169 +405,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,6 +458,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -476,52 +515,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,17 +542,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,10 +1069,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:L14"/>
+  <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1499,6 +1499,39 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1">
+        <v>370</v>
+      </c>
+      <c r="E15" s="1">
+        <v>297</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1210</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>300</v>
+      </c>
+      <c r="K15" s="5">
+        <v>476</v>
+      </c>
+      <c r="L15" s="1">
+        <v>224</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/HeroConfig.xlsx
+++ b/Excel/HeroConfig.xlsx
@@ -81,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -108,15 +108,43 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -124,28 +152,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,9 +184,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,11 +198,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,45 +214,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -230,6 +222,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -237,16 +237,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,187 +267,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,26 +476,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,22 +510,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,10 +1069,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:L15"/>
+  <dimension ref="B2:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1532,6 +1532,39 @@
         <v>224</v>
       </c>
     </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1">
+        <v>370</v>
+      </c>
+      <c r="E16" s="1">
+        <v>297</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1211</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>300</v>
+      </c>
+      <c r="K16" s="5">
+        <v>476</v>
+      </c>
+      <c r="L16" s="1">
+        <v>224</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
